--- a/output/22-demographics.xlsx
+++ b/output/22-demographics.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,57 +405,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>2.266091894083647e-09</v>
+        <v>0.000676198093304711</v>
       </c>
       <c r="E2">
-        <v>0.01252141369072383</v>
+        <v>0.007843563358758096</v>
       </c>
       <c r="F2">
-        <v>96.63777625450523</v>
+        <v>96.15966296710604</v>
       </c>
       <c r="G2">
-        <v>96.63775876526262</v>
+        <v>88.52764402889535</v>
       </c>
       <c r="H2">
-        <v>1.748924260545802e-05</v>
+        <v>7.632018938210688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B3">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>0.001581814865920186</v>
+        <v>0.003527877576363424</v>
       </c>
       <c r="E3">
-        <v>0.02053066681404991</v>
+        <v>0.01703363360873169</v>
       </c>
       <c r="F3">
-        <v>90.81745656500777</v>
+        <v>91.52212759950537</v>
       </c>
       <c r="G3">
-        <v>84.32083601564099</v>
+        <v>75.81905700353578</v>
       </c>
       <c r="H3">
-        <v>6.496620549366774</v>
+        <v>15.70307059596959</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>3.647845728378777e-10</v>
+      </c>
+      <c r="E4">
+        <v>0.01351011707586505</v>
+      </c>
+      <c r="F4">
+        <v>84.40013617824192</v>
+      </c>
+      <c r="G4">
+        <v>84.40013389936702</v>
+      </c>
+      <c r="H4">
+        <v>2.278874906786768e-06</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +493,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +544,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -525,28 +553,28 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.05222961312649974</v>
+        <v>-0.02651011479229319</v>
       </c>
       <c r="D2">
-        <v>0.07963757633869271</v>
+        <v>0.07679201987577294</v>
       </c>
       <c r="E2">
-        <v>6.207779313492461</v>
+        <v>5.412713593016353</v>
       </c>
       <c r="F2">
-        <v>-0.1400913793667518</v>
+        <v>-0.2160167641353845</v>
       </c>
       <c r="G2">
-        <v>0.2407528695968868</v>
+        <v>0.1649213303325412</v>
       </c>
       <c r="H2">
-        <v>0.5351043391828703</v>
+        <v>0.7428868066620057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -555,28 +583,28 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.007666428367775424</v>
+        <v>0.07603636862936404</v>
       </c>
       <c r="D3">
-        <v>0.08103857840409469</v>
+        <v>0.07851662126964266</v>
       </c>
       <c r="E3">
-        <v>9.198043608591489</v>
+        <v>6.923357491730235</v>
       </c>
       <c r="F3">
-        <v>-0.1881211376643611</v>
+        <v>-0.1094560667146898</v>
       </c>
       <c r="G3">
-        <v>0.1732889934179891</v>
+        <v>0.256411142680633</v>
       </c>
       <c r="H3">
-        <v>0.9266582582981651</v>
+        <v>0.3645728641604436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -585,28 +613,28 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.005936425430807488</v>
+        <v>0.0516591023487732</v>
       </c>
       <c r="D4">
-        <v>0.06934721097745702</v>
+        <v>0.07603191982732581</v>
       </c>
       <c r="E4">
-        <v>5.759410838325786</v>
+        <v>6.842860560976987</v>
       </c>
       <c r="F4">
-        <v>-0.1755196573789333</v>
+        <v>-0.1282125832550708</v>
       </c>
       <c r="G4">
-        <v>0.1639889525198475</v>
+        <v>0.2282404164523779</v>
       </c>
       <c r="H4">
-        <v>0.9346780283267041</v>
+        <v>0.5188124224664612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -615,28 +643,28 @@
         </is>
       </c>
       <c r="C5">
-        <v>-0.1375578870973145</v>
+        <v>-0.02280838309912698</v>
       </c>
       <c r="D5">
-        <v>0.1166686956674846</v>
+        <v>0.08660892596596111</v>
       </c>
       <c r="E5">
-        <v>5.952653208903648</v>
+        <v>5.988710143698566</v>
       </c>
       <c r="F5">
-        <v>-0.4006851381013347</v>
+        <v>-0.2306099952864329</v>
       </c>
       <c r="G5">
-        <v>0.146531361034834</v>
+        <v>0.1869829258279568</v>
       </c>
       <c r="H5">
-        <v>0.2805856679787385</v>
+        <v>0.801074495578355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -645,28 +673,28 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.03674360618505944</v>
+        <v>0.07590701520497191</v>
       </c>
       <c r="D6">
-        <v>0.08720264758645602</v>
+        <v>0.08711565954309525</v>
       </c>
       <c r="E6">
-        <v>8.451016407563069</v>
+        <v>6.890147965444007</v>
       </c>
       <c r="F6">
-        <v>-0.2317112303924512</v>
+        <v>-0.1298724837330983</v>
       </c>
       <c r="G6">
-        <v>0.1610619335028253</v>
+        <v>0.2754176388677224</v>
       </c>
       <c r="H6">
-        <v>0.6838733644922386</v>
+        <v>0.412043721744083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -675,28 +703,28 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.04779918647607002</v>
+        <v>0.04592331813744856</v>
       </c>
       <c r="D7">
-        <v>0.08198134286441289</v>
+        <v>0.07501278800073892</v>
       </c>
       <c r="E7">
-        <v>8.475208685573245</v>
+        <v>6.401749353957349</v>
       </c>
       <c r="F7">
-        <v>-0.2308202126330251</v>
+        <v>-0.1340263899654136</v>
       </c>
       <c r="G7">
-        <v>0.1384886918182692</v>
+        <v>0.2229411323464128</v>
       </c>
       <c r="H7">
-        <v>0.574756870649769</v>
+        <v>0.5612357803006942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -705,28 +733,28 @@
         </is>
       </c>
       <c r="C8">
-        <v>-0.03742982212951473</v>
+        <v>0.0616870513531835</v>
       </c>
       <c r="D8">
-        <v>0.08470723087212317</v>
+        <v>0.0999432684928676</v>
       </c>
       <c r="E8">
-        <v>7.817028572245681</v>
+        <v>5.779437890705631</v>
       </c>
       <c r="F8">
-        <v>-0.2294238844653245</v>
+        <v>-0.1829828402229753</v>
       </c>
       <c r="G8">
-        <v>0.1573679195635096</v>
+        <v>0.2991611838191406</v>
       </c>
       <c r="H8">
-        <v>0.6704064694224308</v>
+        <v>0.5601185533124393</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -735,28 +763,28 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.02480374629903431</v>
+        <v>0.03395087367510479</v>
       </c>
       <c r="D9">
-        <v>0.06916727434149732</v>
+        <v>0.07138018614972436</v>
       </c>
       <c r="E9">
-        <v>2.234346494059804</v>
+        <v>2.138100607358009</v>
       </c>
       <c r="F9">
-        <v>-0.2400199637212826</v>
+        <v>-0.2495305173022562</v>
       </c>
       <c r="G9">
-        <v>0.2861914295970985</v>
+        <v>0.3120725553468113</v>
       </c>
       <c r="H9">
-        <v>0.7509328100004262</v>
+        <v>0.6784196330257131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -765,28 +793,28 @@
         </is>
       </c>
       <c r="C10">
-        <v>-0.04211192840678073</v>
+        <v>-0.04562918447852335</v>
       </c>
       <c r="D10">
-        <v>0.05651838030782513</v>
+        <v>0.05864915251332715</v>
       </c>
       <c r="E10">
-        <v>3.514196245784557</v>
+        <v>3.112116597280151</v>
       </c>
       <c r="F10">
-        <v>-0.2050454862471132</v>
+        <v>-0.2246631326292649</v>
       </c>
       <c r="G10">
-        <v>0.1230927430300577</v>
+        <v>0.1363847751905882</v>
       </c>
       <c r="H10">
-        <v>0.502696418054549</v>
+        <v>0.4911387228718885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -795,28 +823,28 @@
         </is>
       </c>
       <c r="C11">
-        <v>-0.008397432738349706</v>
+        <v>-0.002343976912109292</v>
       </c>
       <c r="D11">
-        <v>0.05780105325636432</v>
+        <v>0.06434155352078182</v>
       </c>
       <c r="E11">
-        <v>2.493069754254019</v>
+        <v>2.836899796627608</v>
       </c>
       <c r="F11">
-        <v>-0.2121560694435979</v>
+        <v>-0.2107262324071714</v>
       </c>
       <c r="G11">
-        <v>0.1960609300463831</v>
+        <v>0.2062420445483212</v>
       </c>
       <c r="H11">
-        <v>0.8954110241420434</v>
+        <v>0.9733496158811265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -825,28 +853,28 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.103594512354277</v>
+        <v>0.07593436927334124</v>
       </c>
       <c r="D12">
-        <v>0.08271808328662923</v>
+        <v>0.09635402627276635</v>
       </c>
       <c r="E12">
-        <v>2.633602563497934</v>
+        <v>3.134552742211806</v>
       </c>
       <c r="F12">
-        <v>-0.1793010150082697</v>
+        <v>-0.2196107129434619</v>
       </c>
       <c r="G12">
-        <v>0.3706663801041665</v>
+        <v>0.3587135649726387</v>
       </c>
       <c r="H12">
-        <v>0.3087233139805711</v>
+        <v>0.4851474848323813</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -855,28 +883,28 @@
         </is>
       </c>
       <c r="C13">
-        <v>-0.01321120795955716</v>
+        <v>-0.0474752990873377</v>
       </c>
       <c r="D13">
-        <v>0.06252130656753267</v>
+        <v>0.07792649662367106</v>
       </c>
       <c r="E13">
-        <v>4.203645336432122</v>
+        <v>4.176978000684664</v>
       </c>
       <c r="F13">
-        <v>-0.181498905190222</v>
+        <v>-0.2545778434087545</v>
       </c>
       <c r="G13">
-        <v>0.1558282659190961</v>
+        <v>0.1637910800417758</v>
       </c>
       <c r="H13">
-        <v>0.8424905236765824</v>
+        <v>0.5736813736331905</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -885,28 +913,28 @@
         </is>
       </c>
       <c r="C14">
-        <v>-0.1105681336323518</v>
+        <v>-0.1449199214075996</v>
       </c>
       <c r="D14">
-        <v>0.1234012228426029</v>
+        <v>0.1309737029852544</v>
       </c>
       <c r="E14">
-        <v>3.613007908253862</v>
+        <v>3.208429784219034</v>
       </c>
       <c r="F14">
-        <v>-0.4370743483609287</v>
+        <v>-0.4989121222561006</v>
       </c>
       <c r="G14">
-        <v>0.241686479667802</v>
+        <v>0.2505146419461167</v>
       </c>
       <c r="H14">
-        <v>0.4241997331711442</v>
+        <v>0.3415854202881934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -915,22 +943,172 @@
         </is>
       </c>
       <c r="C15">
-        <v>-0.04790723366227227</v>
+        <v>-0.03930963557136482</v>
       </c>
       <c r="D15">
-        <v>0.06877903633605387</v>
+        <v>0.08084676654701685</v>
       </c>
       <c r="E15">
-        <v>3.799658560164795</v>
+        <v>3.364484414724326</v>
       </c>
       <c r="F15">
-        <v>-0.2382729739222356</v>
+        <v>-0.2743378721637916</v>
       </c>
       <c r="G15">
-        <v>0.1460035348877705</v>
+        <v>0.2001501261142428</v>
       </c>
       <c r="H15">
-        <v>0.5260444974441242</v>
+        <v>0.6565832762329398</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>intrcpt</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>0.4557862905693822</v>
+      </c>
+      <c r="D16">
+        <v>0.09163626291218327</v>
+      </c>
+      <c r="E16">
+        <v>1.395486802176031</v>
+      </c>
+      <c r="F16">
+        <v>-0.1204887999346587</v>
+      </c>
+      <c r="G16">
+        <v>0.8023008313327085</v>
+      </c>
+      <c r="H16">
+        <v>0.0674147590945979</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>demographicsEducation level</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>-0.4025687779808617</v>
+      </c>
+      <c r="D17">
+        <v>0.09353232977482105</v>
+      </c>
+      <c r="E17">
+        <v>2.336671004692975</v>
+      </c>
+      <c r="F17">
+        <v>-0.6517785431135349</v>
+      </c>
+      <c r="G17">
+        <v>-0.07489637026549661</v>
+      </c>
+      <c r="H17">
+        <v>0.03319376401424002</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>demographicsExperience</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>-0.2597258494155688</v>
+      </c>
+      <c r="D18">
+        <v>0.1082171155627127</v>
+      </c>
+      <c r="E18">
+        <v>1.195238503538741</v>
+      </c>
+      <c r="F18">
+        <v>-0.8363133576630374</v>
+      </c>
+      <c r="G18">
+        <v>0.5896646921109158</v>
+      </c>
+      <c r="H18">
+        <v>0.2120616720108858</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>demographicsGender</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>-0.5188502456895975</v>
+      </c>
+      <c r="D19">
+        <v>0.1662757747894469</v>
+      </c>
+      <c r="E19">
+        <v>1.530419740601313</v>
+      </c>
+      <c r="F19">
+        <v>-0.9134235131108996</v>
+      </c>
+      <c r="G19">
+        <v>0.3784764605982437</v>
+      </c>
+      <c r="H19">
+        <v>0.1072611362014852</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>demographicsSES</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>-0.4811397090599022</v>
+      </c>
+      <c r="D20">
+        <v>0.1054809770350235</v>
+      </c>
+      <c r="E20">
+        <v>2.372982121020123</v>
+      </c>
+      <c r="F20">
+        <v>-0.7241726826383422</v>
+      </c>
+      <c r="G20">
+        <v>-0.1317974984187475</v>
+      </c>
+      <c r="H20">
+        <v>0.02664044557703748</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -986,7 +1164,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -995,25 +1173,25 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.3759148523010712</v>
+        <v>0.6693286196024735</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>6.998579767522037</v>
+        <v>5.557775315454235</v>
       </c>
       <c r="F2">
-        <v>0.7181158420855306</v>
+        <v>0.530088961823773</v>
       </c>
       <c r="G2">
-        <v>0.8870842755174202</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1022,25 +1200,25 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.4061958355726567</v>
+        <v>0.5247755692485107</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>5.261256316192663</v>
+        <v>5.516349512051184</v>
       </c>
       <c r="F3">
-        <v>0.7005960117024316</v>
+        <v>0.6201450186723612</v>
       </c>
       <c r="G3">
-        <v>0.8870842755174202</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1049,25 +1227,25 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.996470113715925</v>
+        <v>0.02366779290943954</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>5.246773380240485</v>
+        <v>4.863123400695864</v>
       </c>
       <c r="F4">
-        <v>0.3627323233477054</v>
+        <v>0.9820579016029587</v>
       </c>
       <c r="G4">
-        <v>0.8470599144463119</v>
+        <v>0.9980512737461591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1076,25 +1254,25 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.5417872878656348</v>
+        <v>0.6455119396482702</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>6.886366910051388</v>
+        <v>5.545761817133466</v>
       </c>
       <c r="F5">
-        <v>0.60504279603308</v>
+        <v>0.5443572382446573</v>
       </c>
       <c r="G5">
-        <v>0.8470599144463119</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1103,25 +1281,25 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.6265148880498249</v>
+        <v>0.4842203571611969</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>6.724593825957434</v>
+        <v>5.331810060102518</v>
       </c>
       <c r="F6">
-        <v>0.5516425390272514</v>
+        <v>0.6474685392918776</v>
       </c>
       <c r="G6">
-        <v>0.8470599144463119</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1130,25 +1308,25 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.5583426871248266</v>
+        <v>0.5317834864272418</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>7.827729642185719</v>
+        <v>6.004453294450589</v>
       </c>
       <c r="F7">
-        <v>0.5922174180008368</v>
+        <v>0.6139664826240196</v>
       </c>
       <c r="G7">
-        <v>0.8470599144463119</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1157,25 +1335,25 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.04125211000432891</v>
+        <v>0.7146413575653978</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>5.269375735109945</v>
+        <v>3.510810055764316</v>
       </c>
       <c r="F8">
-        <v>0.9686127048436755</v>
+        <v>0.5194460239423538</v>
       </c>
       <c r="G8">
-        <v>0.988006581012534</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1184,25 +1362,25 @@
         </is>
       </c>
       <c r="C9">
-        <v>2.280508400548208</v>
+        <v>2.079523317529863</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>9.851512613994363</v>
+        <v>8.746166826239278</v>
       </c>
       <c r="F9">
-        <v>0.0461210193996929</v>
+        <v>0.06820978786614268</v>
       </c>
       <c r="G9">
-        <v>0.7227729933043232</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1211,25 +1389,25 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.824642514954779</v>
+        <v>0.002596045220887623</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>5.117246815799178</v>
+        <v>4.058113660709467</v>
       </c>
       <c r="F10">
-        <v>0.4462974370630729</v>
+        <v>0.9980512737461591</v>
       </c>
       <c r="G10">
-        <v>0.8470599144463119</v>
+        <v>0.9980512737461591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1238,25 +1416,25 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.012076748348945</v>
+        <v>0.6937400421001239</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>5.956367942961674</v>
+        <v>4.814406575131812</v>
       </c>
       <c r="F11">
-        <v>0.3508334791574342</v>
+        <v>0.5198822540873211</v>
       </c>
       <c r="G11">
-        <v>0.8470599144463119</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1265,25 +1443,25 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.8029323743859835</v>
+        <v>0.2244335362115494</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>5.065924740824058</v>
+        <v>4.108623206061974</v>
       </c>
       <c r="F12">
-        <v>0.4580135844891725</v>
+        <v>0.8331412798968065</v>
       </c>
       <c r="G12">
-        <v>0.8470599144463119</v>
+        <v>0.9894793677909779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1292,25 +1470,25 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.975754701334053</v>
+        <v>1.889610655895639</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>7.597740902646446</v>
+        <v>7.292046116864051</v>
       </c>
       <c r="F13">
-        <v>0.08550056774471607</v>
+        <v>0.09905226439717239</v>
       </c>
       <c r="G13">
-        <v>0.7227729933043232</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1319,25 +1497,25 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.7519137592043975</v>
+        <v>0.728768155219453</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>4.888602320843604</v>
+        <v>3.372944916781484</v>
       </c>
       <c r="F14">
-        <v>0.4867038782535309</v>
+        <v>0.5134837454064324</v>
       </c>
       <c r="G14">
-        <v>0.8470599144463119</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1346,25 +1524,25 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.8569594207824611</v>
+        <v>0.1418100706576199</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>5.160736481703758</v>
+        <v>3.391731031128876</v>
       </c>
       <c r="F15">
-        <v>0.4294562249458509</v>
+        <v>0.8952432375251704</v>
       </c>
       <c r="G15">
-        <v>0.8470599144463119</v>
+        <v>0.9894793677909779</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1373,25 +1551,25 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.5952767358805564</v>
+        <v>0.141277923473897</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>6.156936652110288</v>
+        <v>5.084389961146104</v>
       </c>
       <c r="F16">
-        <v>0.5728736863711212</v>
+        <v>0.8930778010054088</v>
       </c>
       <c r="G16">
-        <v>0.8470599144463119</v>
+        <v>0.9894793677909779</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1400,25 +1578,25 @@
         </is>
       </c>
       <c r="C17">
-        <v>1.586892211481483</v>
+        <v>1.646294251014231</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>8.756434652078093</v>
+        <v>7.15970001390437</v>
       </c>
       <c r="F17">
-        <v>0.1479358294377487</v>
+        <v>0.1427411790987347</v>
       </c>
       <c r="G17">
-        <v>0.7227729933043232</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1427,25 +1605,25 @@
         </is>
       </c>
       <c r="C18">
-        <v>1.50016634127828</v>
+        <v>1.30692313196896</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>10.36193141880813</v>
+        <v>8.421202323072951</v>
       </c>
       <c r="F18">
-        <v>0.1634100341444389</v>
+        <v>0.2257968638465017</v>
       </c>
       <c r="G18">
-        <v>0.7227729933043232</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1454,25 +1632,25 @@
         </is>
       </c>
       <c r="C19">
-        <v>1.510774766456376</v>
+        <v>1.056325611552091</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>7.44067109110932</v>
+        <v>6.260675591705823</v>
       </c>
       <c r="F19">
-        <v>0.1720888079296008</v>
+        <v>0.3298665492124369</v>
       </c>
       <c r="G19">
-        <v>0.7227729933043232</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1481,25 +1659,25 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.256231252108114</v>
+        <v>0.636039001623474</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>4.895720046525972</v>
+        <v>3.895159145506405</v>
       </c>
       <c r="F20">
-        <v>0.8081897045773162</v>
+        <v>0.5601987771097565</v>
       </c>
       <c r="G20">
-        <v>0.9110714675505667</v>
+        <v>0.9712028089378164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1508,25 +1686,25 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.0157546116610348</v>
+        <v>0.1891874704762959</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>5.296150720200026</v>
+        <v>4.759540153153692</v>
       </c>
       <c r="F21">
-        <v>0.988006581012534</v>
+        <v>0.8577469568202237</v>
       </c>
       <c r="G21">
-        <v>0.988006581012534</v>
+        <v>0.9894793677909779</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1535,25 +1713,25 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.2334472660605206</v>
+        <v>0.2270962862717279</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>5.214846127735007</v>
+        <v>4.354616633323962</v>
       </c>
       <c r="F22">
-        <v>0.8243027563552745</v>
+        <v>0.8306171956643535</v>
       </c>
       <c r="G22">
-        <v>0.9110714675505667</v>
+        <v>0.9894793677909779</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1562,25 +1740,25 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.5436753756157134</v>
+        <v>0.6209082288412628</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>2.482217186381992</v>
+        <v>2.288337455671832</v>
       </c>
       <c r="F23">
-        <v>0.631615224886551</v>
+        <v>0.5908859493184021</v>
       </c>
       <c r="G23">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1589,25 +1767,25 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.2999334434417506</v>
+        <v>0.3086834724804657</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>2.034154393271396</v>
+        <v>2.129350296819387</v>
       </c>
       <c r="F24">
-        <v>0.7921083508407207</v>
+        <v>0.7851675421472322</v>
       </c>
       <c r="G24">
-        <v>0.8754881772450072</v>
+        <v>0.9168661970479363</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1616,25 +1794,25 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.6532846859124216</v>
+        <v>0.3058897863594054</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>2.076339585315831</v>
+        <v>2.233139946150855</v>
       </c>
       <c r="F25">
-        <v>0.5784755785522614</v>
+        <v>0.7858853117553739</v>
       </c>
       <c r="G25">
-        <v>0.8289949826635982</v>
+        <v>0.9168661970479363</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1643,25 +1821,25 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.2919821709382014</v>
+        <v>0.5717255507030827</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>2.758223114918354</v>
+        <v>2.65906642213451</v>
       </c>
       <c r="F26">
-        <v>0.7908659274231437</v>
+        <v>0.6122190451273</v>
       </c>
       <c r="G26">
-        <v>0.8754881772450072</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1670,25 +1848,25 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.7711780026494115</v>
+        <v>0.993988647583482</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>2.528021564544482</v>
+        <v>2.322873192509353</v>
       </c>
       <c r="F27">
-        <v>0.5061918340387251</v>
+        <v>0.4122456237132908</v>
       </c>
       <c r="G27">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1697,25 +1875,25 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.6015315058364451</v>
+        <v>0.5675179200508489</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>2.679339142726409</v>
+        <v>2.44505931667125</v>
       </c>
       <c r="F28">
-        <v>0.5945328152337385</v>
+        <v>0.618204054627791</v>
       </c>
       <c r="G28">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1724,25 +1902,25 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.5702757423982969</v>
+        <v>0.6958901002168225</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>6.843792285682504</v>
+        <v>5.55508570442018</v>
       </c>
       <c r="F29">
-        <v>0.5867156800794354</v>
+        <v>0.5145384192354898</v>
       </c>
       <c r="G29">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1751,25 +1929,25 @@
         </is>
       </c>
       <c r="C30">
-        <v>1.670543252886967</v>
+        <v>1.309218526955594</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>6.468526569234689</v>
+        <v>5.42909310621766</v>
       </c>
       <c r="F30">
-        <v>0.1422518730294758</v>
+        <v>0.2431333840585282</v>
       </c>
       <c r="G30">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1778,25 +1956,25 @@
         </is>
       </c>
       <c r="C31">
-        <v>1.153791176220507</v>
+        <v>0.03651001584482981</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>4.331143296998965</v>
+        <v>5.351510210864221</v>
       </c>
       <c r="F31">
-        <v>0.3082533834671388</v>
+        <v>0.9721988507126865</v>
       </c>
       <c r="G31">
-        <v>0.8289949826635982</v>
+        <v>0.9721988507126865</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1805,25 +1983,25 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.667482224909061</v>
+        <v>0.8965557710423286</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>4.603235152277155</v>
+        <v>4.662912671383353</v>
       </c>
       <c r="F32">
-        <v>0.5364528406892326</v>
+        <v>0.413843724510163</v>
       </c>
       <c r="G32">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1832,25 +2010,25 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.1042666710072895</v>
+        <v>0.08987554276422653</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>4.198063155144091</v>
+        <v>4.790089262325927</v>
       </c>
       <c r="F33">
-        <v>0.9217507439612826</v>
+        <v>0.9320223219190356</v>
       </c>
       <c r="G33">
-        <v>0.9430204543478728</v>
+        <v>0.9721988507126865</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1859,25 +2037,25 @@
         </is>
       </c>
       <c r="C34">
-        <v>1.359019572697529</v>
+        <v>0.9731603913100749</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>4.934923289746845</v>
+        <v>4.892282107200957</v>
       </c>
       <c r="F34">
-        <v>0.2329497485412877</v>
+        <v>0.3760976579380353</v>
       </c>
       <c r="G34">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1886,25 +2064,25 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.07473994266207475</v>
+        <v>0.580966652805082</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>5.597390821492911</v>
+        <v>5.383672771275585</v>
       </c>
       <c r="F35">
-        <v>0.9430204543478728</v>
+        <v>0.584739541415926</v>
       </c>
       <c r="G35">
-        <v>0.9430204543478728</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1913,25 +2091,25 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.732986258242168</v>
+        <v>0.9212061537387427</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>5.76084211299599</v>
+        <v>4.75525832425599</v>
       </c>
       <c r="F36">
-        <v>0.4923010162461492</v>
+        <v>0.4012647970483993</v>
       </c>
       <c r="G36">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1940,25 +2118,25 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.4429138794189416</v>
+        <v>0.3575261735435809</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>6.25922436647779</v>
+        <v>6.396795637000211</v>
       </c>
       <c r="F37">
-        <v>0.6727264422014223</v>
+        <v>0.7322003284318901</v>
       </c>
       <c r="G37">
-        <v>0.8310150168370511</v>
+        <v>0.9168661970479363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1967,25 +2145,25 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.320510513048881</v>
+        <v>1.17262240463737</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>4.200910255487562</v>
+        <v>3.587768718073029</v>
       </c>
       <c r="F38">
-        <v>0.2540150148245606</v>
+        <v>0.3128793335411796</v>
       </c>
       <c r="G38">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1994,25 +2172,25 @@
         </is>
       </c>
       <c r="C39">
-        <v>1.387615508354719</v>
+        <v>1.261435640158392</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>5.751296334519351</v>
+        <v>4.895620377565991</v>
       </c>
       <c r="F39">
-        <v>0.2166246020352942</v>
+        <v>0.2639173315382402</v>
       </c>
       <c r="G39">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2021,25 +2199,25 @@
         </is>
       </c>
       <c r="C40">
-        <v>1.365843135899108</v>
+        <v>0.9085867196019027</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>6.196967431585429</v>
+        <v>6.225289294856529</v>
       </c>
       <c r="F40">
-        <v>0.2194825033311234</v>
+        <v>0.397377657963208</v>
       </c>
       <c r="G40">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2048,25 +2226,25 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.9597803384534501</v>
+        <v>0.7584202523467892</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>3.688297004348175</v>
+        <v>4.291860277427236</v>
       </c>
       <c r="F41">
-        <v>0.3957671864567848</v>
+        <v>0.4877228962650524</v>
       </c>
       <c r="G41">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2075,25 +2253,25 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.5672514894019498</v>
+        <v>0.08693759205540887</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>3.62787524337494</v>
+        <v>4.84072864590557</v>
       </c>
       <c r="F42">
-        <v>0.6037836605083835</v>
+        <v>0.9342022072951432</v>
       </c>
       <c r="G42">
-        <v>0.8289949826635982</v>
+        <v>0.9721988507126865</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2102,19 +2280,289 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.6139524469517738</v>
+        <v>0.877685245174519</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>3.952197656723772</v>
+        <v>4.604902574119854</v>
       </c>
       <c r="F43">
-        <v>0.5728241919774728</v>
+        <v>0.4235334907343737</v>
       </c>
       <c r="G43">
-        <v>0.8289949826635982</v>
+        <v>0.8654856764789074</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>demographicsEducation level - intrcpt</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>4.97041111599212</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1.791732664602825</v>
+      </c>
+      <c r="F44">
+        <v>0.04744482287028613</v>
+      </c>
+      <c r="G44">
+        <v>0.1645646131010174</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>demographicsExperience - intrcpt</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>3.90089913863942</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1.06347662453944</v>
+      </c>
+      <c r="F45">
+        <v>0.1480953981040715</v>
+      </c>
+      <c r="G45">
+        <v>0.2115648544343879</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>demographicsGender - intrcpt</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>4.278571777465628</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1.216935591833168</v>
+      </c>
+      <c r="F46">
+        <v>0.1118195470221441</v>
+      </c>
+      <c r="G46">
+        <v>0.1863659117035735</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>demographicsSES - intrcpt</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>5.332706865568422</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1.654318520027068</v>
+      </c>
+      <c r="F47">
+        <v>0.04936938393030523</v>
+      </c>
+      <c r="G47">
+        <v>0.1645646131010174</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>demographicsExperience - demographicsEducation level</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>3.076566666534437</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2.535989078576626</v>
+      </c>
+      <c r="F48">
+        <v>0.06761104145205554</v>
+      </c>
+      <c r="G48">
+        <v>0.1690276036301389</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>demographicsGender - demographicsEducation level</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>1.480747505113426</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1.874983177795244</v>
+      </c>
+      <c r="F49">
+        <v>0.2846320879451001</v>
+      </c>
+      <c r="G49">
+        <v>0.3162578754945558</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>demographicsSES - demographicsEducation level</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>2.292231869504313</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1.669708204556338</v>
+      </c>
+      <c r="F50">
+        <v>0.1734365353590021</v>
+      </c>
+      <c r="G50">
+        <v>0.2167956691987527</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>demographicsGender - demographicsExperience</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>2.41296071767764</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>2.788580802452171</v>
+      </c>
+      <c r="F51">
+        <v>0.1012808312476667</v>
+      </c>
+      <c r="G51">
+        <v>0.1863659117035735</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>demographicsSES - demographicsExperience</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>3.586396996301554</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>4.752292851255434</v>
+      </c>
+      <c r="F52">
+        <v>0.01719525225303732</v>
+      </c>
+      <c r="G52">
+        <v>0.1645646131010174</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>demographicsSES - demographicsGender</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>0.4476148783233003</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3.790190696532415</v>
+      </c>
+      <c r="F53">
+        <v>0.6788144339305531</v>
+      </c>
+      <c r="G53">
+        <v>0.6788144339305531</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +2572,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2155,168 +2603,178 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Age</t>
         </is>
       </c>
       <c r="C2">
-        <v>742</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Others' age</t>
         </is>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Others' age</t>
+          <t>Others' Gender</t>
         </is>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Others' Gender</t>
+          <t>Experience</t>
         </is>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Experience</t>
+          <t>Education level</t>
         </is>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Education level</t>
+          <t>SES</t>
         </is>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SES</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Age</t>
         </is>
       </c>
       <c r="C10">
-        <v>385</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Experience</t>
         </is>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -2325,70 +2783,70 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Education level</t>
         </is>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Experience</t>
+          <t>Others' age</t>
         </is>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Education level</t>
+          <t>Others' Gender</t>
         </is>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Others' age</t>
+          <t>SES</t>
         </is>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2397,37 +2855,433 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Others' Gender</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SES</t>
+          <t>Experience</t>
         </is>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Education level</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SES</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Others' age</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Others' Gender</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Others' age</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Others' Gender</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SES</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Education level</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Others' age</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Others' Gender</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SES</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
